--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_41.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'B/7']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(14.402743, 18.779705)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619)]</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>schubert-winterreise_111</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.06361746361746362</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[('0:00:13.648526', '0:00:21.125350'), ('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:28.480000', '0:01:40.380000'), ('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -573,52 +580,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -626,170 +630,182 @@
           <t>schubert-winterreise_74</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(129.38, 134.38)]</t>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -798,407 +814,354 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[('0:00:00.560000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.880000', '0:00:22.200000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G', 'G', 'D:7']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[['E:maj/G#', 'E:maj/B', 'B:7']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[('0:00:00.440395', '0:00:12.905056')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:04:00.860000', '0:04:09.080000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'C', 'F']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(43.926916, 52.959478)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(44.859274, 49.758684)]</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4588235294117647</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.36, 110.76)]</t>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(77.72, 95.68)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(19.14, 24.78)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
